--- a/Results/Sentiwordnet/beda-SERVICE.xlsx
+++ b/Results/Sentiwordnet/beda-SERVICE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="94">
   <si>
     <t>id</t>
   </si>
@@ -34,6 +34,15 @@
     <t>predict2</t>
   </si>
   <si>
+    <t>1016296:1</t>
+  </si>
+  <si>
+    <t>1058221:3</t>
+  </si>
+  <si>
+    <t>1058221:4</t>
+  </si>
+  <si>
     <t>1074868:4</t>
   </si>
   <si>
@@ -52,30 +61,81 @@
     <t>1308557:0</t>
   </si>
   <si>
+    <t>1310217:2</t>
+  </si>
+  <si>
+    <t>1340075:2</t>
+  </si>
+  <si>
+    <t>1349391:1</t>
+  </si>
+  <si>
+    <t>1380450:2</t>
+  </si>
+  <si>
+    <t>1410878:1</t>
+  </si>
+  <si>
     <t>1460715:1</t>
   </si>
   <si>
+    <t>1490757:2</t>
+  </si>
+  <si>
+    <t>1538149:0</t>
+  </si>
+  <si>
+    <t>1561259:1</t>
+  </si>
+  <si>
+    <t>1561259:4</t>
+  </si>
+  <si>
     <t>1632929:4</t>
   </si>
   <si>
     <t>1655521:3</t>
   </si>
   <si>
+    <t>1660047:2</t>
+  </si>
+  <si>
     <t>1662726:1</t>
   </si>
   <si>
+    <t>483111:0</t>
+  </si>
+  <si>
     <t>493514:0</t>
   </si>
   <si>
     <t>498657:4</t>
   </si>
   <si>
+    <t>507844:0</t>
+  </si>
+  <si>
     <t>512925:2</t>
   </si>
   <si>
     <t>536919:1</t>
   </si>
   <si>
+    <t>CLF#6:5</t>
+  </si>
+  <si>
+    <t>BFC#7:11</t>
+  </si>
+  <si>
+    <t>ive asked a cart attendant for a lotus leaf wrapped rice and she replied back rice and just walked away.</t>
+  </si>
+  <si>
+    <t>however, it's the service that leaves a bad taste in my mouth.</t>
+  </si>
+  <si>
+    <t>i happen to have a policy that goes along with a little bit of self-respect, which includes not letting a waiter intimidate me, i.e. make me feel bad asking for trivialities like water, or the check.</t>
+  </si>
+  <si>
     <t>the food was well prepared and the service impecable.</t>
   </si>
   <si>
@@ -94,30 +154,78 @@
     <t>the service was the only thing good about this restaurant.</t>
   </si>
   <si>
+    <t>the price is reasonable although the service is poor.</t>
+  </si>
+  <si>
+    <t>the atmosphere is noisy and the waiters are literally walking around doing things as fast as they can.</t>
+  </si>
+  <si>
+    <t>sometimes i get bad food and bad service, sometimes i get good good and bad service.</t>
+  </si>
+  <si>
+    <t>service was also horrible and the ambience is not that great.</t>
+  </si>
+  <si>
+    <t>i've never had bad service and the fish is fresh and delicious.</t>
+  </si>
+  <si>
     <t>service was quick.</t>
   </si>
   <si>
+    <t>the prices were cheap compared to the quality of service and food.</t>
+  </si>
+  <si>
+    <t>i found the food, service and value exceptional everytime i have been there.</t>
+  </si>
+  <si>
+    <t>but the staff was so horrible to us.</t>
+  </si>
+  <si>
+    <t>this place is pricey, and yes, the food is worth it; but the service makes you feel like you should be paying a quater of the price.</t>
+  </si>
+  <si>
     <t>when my dessert came, there was a candle in it - not because anyone asked for one - but because the waiter must have seen me opening my birthday card and gift, and said he knew it was a special occassion of some sort.</t>
   </si>
   <si>
     <t>the wait staff is very freindly, they make it feel like you're eating in a freindly little european town.</t>
   </si>
   <si>
+    <t>the waitress, seems to be more concerned of looking good than actually waitressing.</t>
+  </si>
+  <si>
     <t>a gentleman, maybe the manager, came to our table, and without so much as a smile or greeting asked for our order.</t>
   </si>
   <si>
+    <t>winnie and her staff are the best crew you can find serving you.</t>
+  </si>
+  <si>
     <t>i cannot imagine a friendlier staff working in a restaurant.</t>
   </si>
   <si>
     <t>the wait here is long for dim sum, but if you don't like sharing tables or if the typical raucous dim sum atmosphere is not your gig, this is a sleek (for chinatown) alternative.</t>
   </si>
   <si>
+    <t>this place would be so much better served by being run by a group that actually understands customer service.</t>
+  </si>
+  <si>
     <t>also it's great to have dinner in a very romantic and confortable place, the service it's just perfect...they're so frendly that we never want to live the place!</t>
   </si>
   <si>
     <t>the only thing the waiters don't do for you is wipe your chin when you leave.</t>
   </si>
   <si>
+    <t>they are extremely rude, not even apologizing for the horrible service we got and handing us a bill well over $500 for some drinks adn their pita bread!</t>
+  </si>
+  <si>
+    <t>considering you will spend at least $60 a head, i expect better service.</t>
+  </si>
+  <si>
+    <t>ive|ive</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>prepared</t>
   </si>
   <si>
@@ -133,31 +241,61 @@
     <t>only</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>noisy</t>
+  </si>
+  <si>
+    <t>bad|bad|bad|bad</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
     <t>quick</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>exceptional</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
     <t>little|little|little</t>
   </si>
   <si>
+    <t>concerned|good|concerned|good</t>
+  </si>
+  <si>
     <t>much|much|much</t>
   </si>
   <si>
+    <t>best|best</t>
+  </si>
+  <si>
     <t>friendlier</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>perfecttheyre</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>positive</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
 </sst>
 </file>
@@ -515,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,19 +687,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -572,19 +710,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -595,19 +733,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -618,19 +756,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -641,19 +779,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -664,19 +802,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -687,19 +825,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -710,19 +848,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -733,19 +871,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -756,19 +894,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -779,19 +917,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -802,19 +940,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -825,19 +963,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -848,19 +986,410 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" t="s">
-        <v>47</v>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
